--- a/2022/OTU/wheat metadata.xlsx
+++ b/2022/OTU/wheat metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\2022\ASV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\2022\OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2A394-9BB0-445E-A2A1-63D16FCE98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D5972D-FC71-40A4-B274-101A633B2869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="135">
   <si>
     <t>group</t>
   </si>
@@ -422,6 +422,24 @@
   </si>
   <si>
     <t>2UK503</t>
+  </si>
+  <si>
+    <t>Hemp Fib 1</t>
+  </si>
+  <si>
+    <t>Cov 1</t>
+  </si>
+  <si>
+    <t>Cov 2</t>
+  </si>
+  <si>
+    <t>Hemp Grain 1</t>
+  </si>
+  <si>
+    <t>Hemp Fib 2</t>
+  </si>
+  <si>
+    <t>Hemp Grain 2</t>
   </si>
 </sst>
 </file>
@@ -747,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,8 +795,8 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -794,8 +812,8 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -811,8 +829,8 @@
       <c r="A4" t="s">
         <v>119</v>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -828,8 +846,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -845,8 +863,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -862,8 +880,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -879,8 +897,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -896,8 +914,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -913,8 +931,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -930,8 +948,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -947,8 +965,8 @@
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -964,8 +982,8 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" t="s">
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -981,8 +999,8 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>6</v>
+      <c r="B14" t="s">
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -998,8 +1016,8 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="B15" t="s">
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1015,8 +1033,8 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1032,8 +1050,8 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="s">
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1049,8 +1067,8 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1066,8 +1084,8 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1083,8 +1101,8 @@
       <c r="A20" t="s">
         <v>121</v>
       </c>
-      <c r="B20">
-        <v>4</v>
+      <c r="B20" t="s">
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1100,8 +1118,8 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" t="s">
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1117,8 +1135,8 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1134,8 +1152,8 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23">
-        <v>6</v>
+      <c r="B23" t="s">
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1151,8 +1169,8 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="B24" t="s">
+        <v>129</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1168,8 +1186,8 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
-        <v>5</v>
+      <c r="B25" t="s">
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1185,8 +1203,8 @@
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>133</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1202,8 +1220,8 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1219,8 +1237,8 @@
       <c r="A28" t="s">
         <v>122</v>
       </c>
-      <c r="B28">
-        <v>4</v>
+      <c r="B28" t="s">
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1236,8 +1254,8 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
-        <v>3</v>
+      <c r="B29" t="s">
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1253,8 +1271,8 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>134</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1270,8 +1288,8 @@
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="s">
+        <v>129</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1287,8 +1305,8 @@
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32">
-        <v>5</v>
+      <c r="B32" t="s">
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1304,8 +1322,8 @@
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33">
-        <v>6</v>
+      <c r="B33" t="s">
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1321,8 +1339,8 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
-        <v>3</v>
+      <c r="B34" t="s">
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1338,8 +1356,8 @@
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="s">
+        <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1355,8 +1373,8 @@
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="s">
+        <v>132</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1372,8 +1390,8 @@
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>130</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1389,8 +1407,8 @@
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1406,8 +1424,8 @@
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1423,8 +1441,8 @@
       <c r="A40" t="s">
         <v>124</v>
       </c>
-      <c r="B40">
-        <v>4</v>
+      <c r="B40" t="s">
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1440,8 +1458,8 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
-        <v>3</v>
+      <c r="B41" t="s">
+        <v>131</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1457,8 +1475,8 @@
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1474,8 +1492,8 @@
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" t="s">
+        <v>129</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1491,8 +1509,8 @@
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>130</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1508,8 +1526,8 @@
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
-        <v>4</v>
+      <c r="B45" t="s">
+        <v>132</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1525,8 +1543,8 @@
       <c r="A46" t="s">
         <v>125</v>
       </c>
-      <c r="B46">
-        <v>5</v>
+      <c r="B46" t="s">
+        <v>133</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1542,8 +1560,8 @@
       <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="B47">
-        <v>6</v>
+      <c r="B47" t="s">
+        <v>134</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1559,8 +1577,8 @@
       <c r="A48" t="s">
         <v>126</v>
       </c>
-      <c r="B48">
-        <v>3</v>
+      <c r="B48" t="s">
+        <v>131</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -1576,8 +1594,8 @@
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49">
-        <v>2</v>
+      <c r="B49" t="s">
+        <v>129</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1593,8 +1611,8 @@
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50">
-        <v>3</v>
+      <c r="B50" t="s">
+        <v>131</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -1610,8 +1628,8 @@
       <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="B51">
-        <v>6</v>
+      <c r="B51" t="s">
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1627,8 +1645,8 @@
       <c r="A52" t="s">
         <v>64</v>
       </c>
-      <c r="B52">
-        <v>2</v>
+      <c r="B52" t="s">
+        <v>129</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1644,8 +1662,8 @@
       <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B53">
-        <v>5</v>
+      <c r="B53" t="s">
+        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -1661,8 +1679,8 @@
       <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="s">
+        <v>130</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1678,8 +1696,8 @@
       <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B55">
-        <v>4</v>
+      <c r="B55" t="s">
+        <v>132</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -1695,8 +1713,8 @@
       <c r="A56" t="s">
         <v>123</v>
       </c>
-      <c r="B56">
-        <v>2</v>
+      <c r="B56" t="s">
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1712,8 +1730,8 @@
       <c r="A57" t="s">
         <v>68</v>
       </c>
-      <c r="B57">
-        <v>3</v>
+      <c r="B57" t="s">
+        <v>131</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1729,8 +1747,8 @@
       <c r="A58" t="s">
         <v>69</v>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" t="s">
+        <v>130</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1746,8 +1764,8 @@
       <c r="A59" t="s">
         <v>70</v>
       </c>
-      <c r="B59">
-        <v>6</v>
+      <c r="B59" t="s">
+        <v>134</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1763,8 +1781,8 @@
       <c r="A60" t="s">
         <v>71</v>
       </c>
-      <c r="B60">
-        <v>5</v>
+      <c r="B60" t="s">
+        <v>133</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -1780,8 +1798,8 @@
       <c r="A61" t="s">
         <v>18</v>
       </c>
-      <c r="B61">
-        <v>2</v>
+      <c r="B61" t="s">
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -1797,8 +1815,8 @@
       <c r="A62" t="s">
         <v>19</v>
       </c>
-      <c r="B62">
-        <v>4</v>
+      <c r="B62" t="s">
+        <v>132</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -1814,8 +1832,8 @@
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>130</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1831,8 +1849,8 @@
       <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="B64" t="s">
+        <v>131</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -1848,8 +1866,8 @@
       <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="B65">
-        <v>5</v>
+      <c r="B65" t="s">
+        <v>133</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -1865,8 +1883,8 @@
       <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="B66">
-        <v>3</v>
+      <c r="B66" t="s">
+        <v>131</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1882,8 +1900,8 @@
       <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67">
-        <v>2</v>
+      <c r="B67" t="s">
+        <v>129</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -1899,8 +1917,8 @@
       <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B68">
-        <v>5</v>
+      <c r="B68" t="s">
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -1916,8 +1934,8 @@
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69">
-        <v>4</v>
+      <c r="B69" t="s">
+        <v>132</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -1933,8 +1951,8 @@
       <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B70">
-        <v>6</v>
+      <c r="B70" t="s">
+        <v>134</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -1950,8 +1968,8 @@
       <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B71">
-        <v>6</v>
+      <c r="B71" t="s">
+        <v>134</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -1967,8 +1985,8 @@
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72">
-        <v>2</v>
+      <c r="B72" t="s">
+        <v>129</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -1984,8 +2002,8 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -2001,8 +2019,8 @@
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74">
-        <v>3</v>
+      <c r="B74" t="s">
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -2018,8 +2036,8 @@
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75">
-        <v>4</v>
+      <c r="B75" t="s">
+        <v>132</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2035,8 +2053,8 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76">
-        <v>5</v>
+      <c r="B76" t="s">
+        <v>133</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -2052,8 +2070,8 @@
       <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77">
-        <v>3</v>
+      <c r="B77" t="s">
+        <v>131</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -2069,8 +2087,8 @@
       <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78">
-        <v>1</v>
+      <c r="B78" t="s">
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -2086,8 +2104,8 @@
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79">
-        <v>6</v>
+      <c r="B79" t="s">
+        <v>134</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -2103,8 +2121,8 @@
       <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B80">
-        <v>2</v>
+      <c r="B80" t="s">
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -2120,8 +2138,8 @@
       <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B81">
-        <v>5</v>
+      <c r="B81" t="s">
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -2137,8 +2155,8 @@
       <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82">
-        <v>5</v>
+      <c r="B82" t="s">
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -2154,8 +2172,8 @@
       <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B83">
-        <v>1</v>
+      <c r="B83" t="s">
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -2171,8 +2189,8 @@
       <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84">
-        <v>3</v>
+      <c r="B84" t="s">
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -2188,8 +2206,8 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85">
-        <v>6</v>
+      <c r="B85" t="s">
+        <v>134</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2205,8 +2223,8 @@
       <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B86">
-        <v>2</v>
+      <c r="B86" t="s">
+        <v>129</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -2222,8 +2240,8 @@
       <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
-        <v>6</v>
+      <c r="B87" t="s">
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -2239,8 +2257,8 @@
       <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
-        <v>3</v>
+      <c r="B88" t="s">
+        <v>131</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2256,8 +2274,8 @@
       <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
-        <v>2</v>
+      <c r="B89" t="s">
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -2273,8 +2291,8 @@
       <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
-        <v>4</v>
+      <c r="B90" t="s">
+        <v>132</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -2290,8 +2308,8 @@
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
-        <v>1</v>
+      <c r="B91" t="s">
+        <v>130</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -2307,8 +2325,8 @@
       <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B92">
-        <v>6</v>
+      <c r="B92" t="s">
+        <v>134</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -2324,8 +2342,8 @@
       <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B93">
-        <v>1</v>
+      <c r="B93" t="s">
+        <v>130</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -2341,8 +2359,8 @@
       <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B94">
-        <v>3</v>
+      <c r="B94" t="s">
+        <v>131</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -2358,8 +2376,8 @@
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B95">
-        <v>5</v>
+      <c r="B95" t="s">
+        <v>133</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -2375,8 +2393,8 @@
       <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B96">
-        <v>2</v>
+      <c r="B96" t="s">
+        <v>129</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -2392,8 +2410,8 @@
       <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B97">
-        <v>1</v>
+      <c r="B97" t="s">
+        <v>130</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -2409,8 +2427,8 @@
       <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B98">
-        <v>4</v>
+      <c r="B98" t="s">
+        <v>132</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -2426,8 +2444,8 @@
       <c r="A99" t="s">
         <v>127</v>
       </c>
-      <c r="B99">
-        <v>5</v>
+      <c r="B99" t="s">
+        <v>133</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -2443,8 +2461,8 @@
       <c r="A100" t="s">
         <v>107</v>
       </c>
-      <c r="B100">
-        <v>6</v>
+      <c r="B100" t="s">
+        <v>134</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -2460,8 +2478,8 @@
       <c r="A101" t="s">
         <v>108</v>
       </c>
-      <c r="B101">
-        <v>2</v>
+      <c r="B101" t="s">
+        <v>129</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -2477,8 +2495,8 @@
       <c r="A102" t="s">
         <v>109</v>
       </c>
-      <c r="B102">
-        <v>3</v>
+      <c r="B102" t="s">
+        <v>131</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -2494,8 +2512,8 @@
       <c r="A103" t="s">
         <v>110</v>
       </c>
-      <c r="B103">
-        <v>6</v>
+      <c r="B103" t="s">
+        <v>134</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -2511,8 +2529,8 @@
       <c r="A104" t="s">
         <v>111</v>
       </c>
-      <c r="B104">
-        <v>2</v>
+      <c r="B104" t="s">
+        <v>129</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -2528,8 +2546,8 @@
       <c r="A105" t="s">
         <v>112</v>
       </c>
-      <c r="B105">
-        <v>5</v>
+      <c r="B105" t="s">
+        <v>133</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
@@ -2545,8 +2563,8 @@
       <c r="A106" t="s">
         <v>113</v>
       </c>
-      <c r="B106">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>130</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -2562,8 +2580,8 @@
       <c r="A107" t="s">
         <v>114</v>
       </c>
-      <c r="B107">
-        <v>4</v>
+      <c r="B107" t="s">
+        <v>132</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -2579,8 +2597,8 @@
       <c r="A108" t="s">
         <v>115</v>
       </c>
-      <c r="B108">
-        <v>3</v>
+      <c r="B108" t="s">
+        <v>131</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -2596,8 +2614,8 @@
       <c r="A109" t="s">
         <v>128</v>
       </c>
-      <c r="B109">
-        <v>4</v>
+      <c r="B109" t="s">
+        <v>132</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -2613,8 +2631,8 @@
       <c r="A110" t="s">
         <v>116</v>
       </c>
-      <c r="B110">
-        <v>1</v>
+      <c r="B110" t="s">
+        <v>130</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -2630,8 +2648,8 @@
       <c r="A111" t="s">
         <v>117</v>
       </c>
-      <c r="B111">
-        <v>5</v>
+      <c r="B111" t="s">
+        <v>133</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>

--- a/2022/OTU/wheat metadata.xlsx
+++ b/2022/OTU/wheat metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\2022\OTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentp\Documents\GitHub\Rhizosphere-sequencing\2022\OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D5972D-FC71-40A4-B274-101A633B2869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DFC51-BCC4-41A4-8427-02E650C3F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat metadata" sheetId="1" r:id="rId1"/>
@@ -766,15 +766,15 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>117</v>
       </c>
